--- a/Documentation/Planning 1 - Robin van Hoof.xlsx
+++ b/Documentation/Planning 1 - Robin van Hoof.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Desktop\Git\s2-individueel-robin-van-hoof\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\GitHub\s2-individueel-robin-van-hoof\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79958214-9DC6-4CB8-BFC0-34AE3815B38C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3DD946-AD36-4B0C-BD7E-94742E84F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13CF7620-F261-433A-98C9-5687EFB06097}"/>
+    <workbookView xWindow="4725" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{13CF7620-F261-433A-98C9-5687EFB06097}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>To Do</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Projectomschrijving</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>UI Design</t>
+  </si>
+  <si>
+    <t>Prototype</t>
   </si>
 </sst>
 </file>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB93B9-2F29-4B3F-8C3B-5A9F66D733EB}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1171,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="44"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="12"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="29"/>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="22" t="s">
@@ -1328,11 +1328,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="29"/>
@@ -1354,10 +1354,12 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1382,7 +1384,7 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="12"/>
@@ -1581,7 +1583,9 @@
         <v>38</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
       <c r="G21" s="21"/>
@@ -1701,10 +1705,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -1712,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
